--- a/images/NES energy Consumption.xlsx
+++ b/images/NES energy Consumption.xlsx
@@ -8,115 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterbusienei/Documents/Analytics-01/Nashville_electric_consumption/Nashville-Electric-Service-Monthly-Energy-Consumption-by-Customer-Type-and-ZIP-Code/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D13FB72-ED6B-5547-9AD5-B3013D26864C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2F59A1-7175-F440-8F90-03D9FBFA4D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16320" xr2:uid="{40608A02-CFA1-EC47-B20C-105F3381EB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$5</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$5</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$6</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$7</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$C$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$C$7:$K$7</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$6</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$6</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$7</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$C$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$C$7:$K$7</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$5</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$7</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$B$7</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$C$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$C$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$C$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$C$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$C$7:$K$7</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$5</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$B$6</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$B$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$C$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$C$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$C$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$C$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$C$7:$K$7</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$B$5</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$B$6</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$B$7</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$C$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$C$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$C$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$C$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$C$7:$K$7</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$B$5</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$B$6</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$B$7</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$C$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$C$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$C$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$C$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$C$7:$K$7</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$B$5</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$B$6</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$B$7</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$C$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$C$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$C$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$C$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Sheet1!$C$7:$K$7</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">Sheet1!$B$5</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">Sheet1!$B$6</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">Sheet1!$B$7</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Sheet1!$C$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">Sheet1!$C$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">Sheet1!$C$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">Sheet1!$C$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$7:$K$7</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">Sheet1!$C$7:$K$7</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">Sheet1!$B$5</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">Sheet1!$B$6</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">Sheet1!$B$7</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">Sheet1!$C$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">Sheet1!$C$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">Sheet1!$C$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">Sheet1!$C$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">Sheet1!$C$7:$K$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">Sheet1!$B$5</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">Sheet1!$B$6</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">Sheet1!$B$7</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">Sheet1!$C$3:$K$3</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">Sheet1!$C$4:$K$4</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">Sheet1!$C$5:$K$5</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">Sheet1!$C$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">Sheet1!$C$7:$K$7</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>commercial</t>
   </si>
@@ -153,12 +52,21 @@
   <si>
     <t>Shortfall(kWh)</t>
   </si>
+  <si>
+    <t>Customer Type</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,6 +98,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,12 +125,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -333,7 +251,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$4</c:f>
+              <c:f>Sheet1!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -491,7 +409,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$K$3</c:f>
+              <c:f>Sheet1!$D$3:$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -526,7 +444,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$K$4</c:f>
+              <c:f>Sheet1!$D$4:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -572,7 +490,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$5</c:f>
+              <c:f>Sheet1!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -595,7 +513,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$K$3</c:f>
+              <c:f>Sheet1!$D$3:$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -630,7 +548,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$K$5</c:f>
+              <c:f>Sheet1!$D$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -676,7 +594,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$6</c:f>
+              <c:f>Sheet1!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -839,7 +757,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$K$3</c:f>
+              <c:f>Sheet1!$D$3:$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -874,7 +792,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$K$6</c:f>
+              <c:f>Sheet1!$D$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -920,7 +838,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$7</c:f>
+              <c:f>Sheet1!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1044,7 +962,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$K$3</c:f>
+              <c:f>Sheet1!$D$3:$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1079,7 +997,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$K$7</c:f>
+              <c:f>Sheet1!$D$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1273,6 +1191,2003 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1319054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1278837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1312226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1211121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1029250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>904122.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>893324</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>879673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4A4-0E4C-9D6B-A783A5C2CFA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5743.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4890</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5474.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5080</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3864.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A4A4-0E4C-9D6B-A783A5C2CFA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2317356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2300381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2290672.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2040177.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1751897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000728.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1808500.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A4A4-0E4C-9D6B-A783A5C2CFA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>469.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>760</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A4A4-0E4C-9D6B-A783A5C2CFA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A4A4-0E4C-9D6B-A783A5C2CFA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Customer Type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>commercial</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>outdoor_lighting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>residential</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>seasonal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>8827608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16410095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AAC-6B47-B084-8686E6425FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Customer Type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>commercial</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>outdoor_lighting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>residential</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>seasonal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34916553720759747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6264922565108935E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64908179387923759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.26176656654015E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7AAC-6B47-B084-8686E6425FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Customer Type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>commercial</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>outdoor_lighting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>residential</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>seasonal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>34.916553720759744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16264922565108936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.908179387923752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.26176656654015E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7AAC-6B47-B084-8686E6425FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percentage </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Energy Consumption Per Customer Type</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$25:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Customer Type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>commercial</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>outdoor_lighting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>residential</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>seasonal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>34.916553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16264899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.908179000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.26176E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38B7-014C-B14B-FBED3EDC624D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2290169933137919E-2"/>
+          <c:y val="0.86688844913717933"/>
+          <c:w val="0.81541966013372413"/>
+          <c:h val="0.11202191993136183"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1372,6 +3287,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -1877,17 +3912,1574 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -1910,6 +5502,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C796391D-F5D5-D545-89BD-1A24D7CCCF06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77405CD9-6F44-254D-9AB5-9AFA4AB6F594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAF5C9F-4CC7-174C-862A-311324E656FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2215,156 +5915,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5E763F-319A-E74C-901E-F5FFDAD3D041}">
-  <dimension ref="B3:K25"/>
+  <dimension ref="A3:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A25" sqref="A25:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:13" ht="19">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>2012</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>2013</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>2014</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>2015</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>2016</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2017</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>2018</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>2019</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:13" ht="17">
+      <c r="B4" s="4">
+        <v>8827608</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>1319054</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>1278837</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>1312226</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>1211121</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>1029250</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>904122.5</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>893324</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>879673</v>
       </c>
-      <c r="K4" s="4">
-        <f>J4-C4</f>
+      <c r="L4" s="4">
+        <f>K4-D4</f>
         <v>-439381</v>
       </c>
+      <c r="M4" s="4">
+        <f>SUM(D4:K4)</f>
+        <v>8827607.5</v>
+      </c>
     </row>
-    <row r="5" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:13" ht="17">
+      <c r="B5" s="4">
+        <v>41121</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>5764</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>5867</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>5743.5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>4890</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>5474.5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>5080</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>3864.5</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>4437</v>
       </c>
-      <c r="K5" s="4">
-        <f t="shared" ref="K5:K6" si="0">J5-C5</f>
+      <c r="L5" s="4">
+        <f t="shared" ref="L5:L6" si="0">K5-D5</f>
         <v>-1327</v>
       </c>
+      <c r="M5" s="4">
+        <f>SUM(D5:K5)</f>
+        <v>41120.5</v>
+      </c>
     </row>
-    <row r="6" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:13" ht="17">
+      <c r="B6" s="4">
+        <v>16410095</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>2317356</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>2300381</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>2290672.5</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>2040177.5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>1900382</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>1751897</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>2000728.5</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>1808500.5</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <f t="shared" si="0"/>
         <v>-508855.5</v>
       </c>
+      <c r="M6" s="4">
+        <f>SUM(D6:K6)</f>
+        <v>16410095</v>
+      </c>
     </row>
-    <row r="7" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:13" ht="17">
+      <c r="B7" s="4">
+        <v>3190</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -2373,147 +6094,243 @@
         <v>0</v>
       </c>
       <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>480</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>760</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>469.5</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>720</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>760</v>
       </c>
-      <c r="K7">
-        <f>J7-F7</f>
+      <c r="L7">
+        <f>K7-G7</f>
         <v>280</v>
       </c>
+      <c r="M7" s="4">
+        <f>SUM(D7:K7)</f>
+        <v>3189.5</v>
+      </c>
     </row>
-    <row r="21" spans="2:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+    <row r="8" spans="2:13">
+      <c r="B8" s="4" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="10" spans="2:13" ht="19">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="17">
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8827608</v>
+      </c>
+      <c r="D11">
+        <f>C11/C15</f>
+        <v>0.34916553720759747</v>
+      </c>
+      <c r="E11">
+        <f>D11*100</f>
+        <v>34.916553720759744</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="17">
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>41121</v>
+      </c>
+      <c r="D12">
+        <f>C12/C15</f>
+        <v>1.6264922565108935E-3</v>
+      </c>
+      <c r="E12">
+        <f>D12*100</f>
+        <v>0.16264922565108936</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="17">
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>16410095</v>
+      </c>
+      <c r="D13">
+        <f>C13/C15</f>
+        <v>0.64908179387923759</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E14" si="1">D13*100</f>
+        <v>64.908179387923752</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="17">
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3190</v>
+      </c>
+      <c r="D14">
+        <f>C14/C15</f>
+        <v>1.26176656654015E-4</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.26176656654015E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="17">
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUM(C11:C14)</f>
+        <v>25282014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="19">
+      <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>2012</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>2013</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>2014</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>2015</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>2016</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>2017</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>2018</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:11" ht="17">
+      <c r="C22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>1319054</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>1278837</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>1312226</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>1211121</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>1029250</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>904122.5</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>893324</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>879673</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:11" ht="17">
+      <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D23" s="4">
         <v>5764</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>5867</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>5743.5</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>4890</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>5474.5</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="4">
         <v>5080</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>3864.5</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <v>4437</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="1:11" ht="17">
+      <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="4">
         <v>2317356</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>2300381</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>2290672.5</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>2040177.5</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>1900382</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="4">
         <v>1751897</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>2000728.5</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>1808500.5</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:11" ht="19">
+      <c r="A25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -2522,19 +6339,54 @@
         <v>0</v>
       </c>
       <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
         <v>480</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>760</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>469.5</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>720</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="17">
+      <c r="A26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="7">
+        <v>34.916553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="17">
+      <c r="A27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.16264899999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="17">
+      <c r="A28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="7">
+        <v>64.908179000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="17">
+      <c r="A29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1.26176E-2</v>
       </c>
     </row>
   </sheetData>
